--- a/meal_optimisation/1952.xlsx
+++ b/meal_optimisation/1952.xlsx
@@ -395,11 +395,11 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Braised Pork Mince</t>
+          <t>Thai Red Curry Fried Rice</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -409,7 +409,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Roast Chicken and Veg</t>
+          <t>Lasagne</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -417,7 +417,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Chicken and Vegetable Nimono</t>
+          <t>Veggie Chow Mein</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -427,15 +427,15 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Baked Drumsticks with Potato Bake</t>
+          <t>Feta Chicken Pasta</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Beef Satay Skewers</t>
+          <t>Chicken and Vegetable Nimono</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -445,15 +445,15 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Teriyaki Chicken and Vegetables</t>
+          <t>Spicy Vegetable Curry</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Caramel Miso Wings</t>
+          <t>Sticky Asian Meatballs</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -463,15 +463,15 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Beef Stroganoff</t>
+          <t>Citrus Chicken and Vegetables</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Sticky Asian Meatballs</t>
+          <t>General Tso's Tofu</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -481,15 +481,15 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Peanut Satay Skewers</t>
+          <t>Veggie Lasagne</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Egg Fried Rice</t>
+          <t>Tonkatsu Pork</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -499,15 +499,15 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Beef Fusilli</t>
+          <t>Bacon Stuffed Mushrooms</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Black Bean Beef with Broccoli</t>
+          <t>White Bean Chicken</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -517,15 +517,15 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Spaghetti Bolognese</t>
+          <t>Spring Vegetable Risotto</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Pineapple Teriyaki Chicken</t>
+          <t>Plum Chicken</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -535,15 +535,15 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Shepherd's Pie</t>
+          <t>Beef Stroganoff</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Falafel with Baba Ghanoush</t>
+          <t>Beef Satay Skewers</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -553,15 +553,15 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Tarragon Chicken</t>
+          <t>Pesto Penne Pasta</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Thai Red Curry Fried Rice</t>
+          <t>Braised Pork Mince</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -583,7 +583,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Coconut Lentil Curry</t>
+          <t>Tarragon Chicken</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -593,7 +593,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Bacon Carbonara</t>
+          <t>Tonkatsu Pork</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -601,39 +601,37 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Veggie Lasagne</t>
-        </is>
+      <c r="A17" t="n">
+        <v>0</v>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Grilled Vegetable Pasta</t>
+          <t>Tonkatsu Pork</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>White Bean Chicken</t>
+          <t>Thai Red Curry Fried Rice</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Tonkatsu Pork</t>
+          <t>Beef Burrito Bowl</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -641,33 +639,27 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Tofu Veggie Stir Fry</t>
-        </is>
+      <c r="A21" t="n">
+        <v>0</v>
       </c>
       <c r="B21" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Thai Red Curry Fried Rice</t>
-        </is>
+      <c r="A22" t="n">
+        <v>0</v>
       </c>
       <c r="B22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Beef Burrito Bowl</t>
-        </is>
+      <c r="A23" t="n">
+        <v>0</v>
       </c>
       <c r="B23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
